--- a/[Data] WES_PASS/Patient-A34-indels.xlsx
+++ b/[Data] WES_PASS/Patient-A34-indels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="361">
   <si>
     <t>NG.8132_A34</t>
   </si>
@@ -52,640 +52,1051 @@
     <t>GBM driver</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>chr1_25697212</t>
   </si>
   <si>
-    <t>RHCE</t>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_12406685   </t>
   </si>
   <si>
     <t>chr1_55620685</t>
   </si>
   <si>
-    <t>USP24</t>
+    <t>AARSD1 intron_variant&amp;non_coding_transcript_variant:PTGES3L-AARSD1 intron_variant&amp;NMD_transcript_variant:AARSD1 intron_variant:PTGES3L-AARSD1 intron_variant:AARSD1 intron_variant&amp;NMD_transcript_variant:AARSD1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_41113131   </t>
   </si>
   <si>
     <t>chr1_71419255</t>
   </si>
   <si>
-    <t>PTGER3</t>
+    <t>SIRPB1 intron_variant&amp;non_coding_transcript_variant:RP4-576H24.4 intron_variant:SIRPB1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_1592431   </t>
   </si>
   <si>
     <t>chr1_78104938</t>
   </si>
   <si>
-    <t>ZZZ3</t>
+    <t xml:space="preserve">chr20_60904421   </t>
   </si>
   <si>
     <t>chr1_161208254</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>DSPP synonymous_variant:RP11-742B18.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_88537276   </t>
   </si>
   <si>
     <t>chr1_184688237</t>
   </si>
   <si>
-    <t>EDEM3</t>
+    <t>HSD17B7 intron_variant:HSD17B7 intron_variant&amp;non_coding_transcript_variant:HSD17B7 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_162773396   </t>
   </si>
   <si>
     <t>chr1_243138492</t>
   </si>
   <si>
+    <t>CAMK2A intron_variant:CAMK2A intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_149624901   </t>
+  </si>
+  <si>
     <t>chr1_243138540</t>
   </si>
   <si>
+    <t>TEKT4P2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_9921939   </t>
+  </si>
+  <si>
     <t>chr2_65893962</t>
   </si>
   <si>
-    <t>AC074391.1:KRT18P33</t>
+    <t>PTGER3 intron_variant:PTGER3 intron_variant&amp;NMD_transcript_variant:PTGER3 splice_region_variant&amp;intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_71418747   </t>
   </si>
   <si>
     <t>chr2_69732571</t>
   </si>
   <si>
-    <t>AAK1</t>
+    <t>HMCN1 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_185972969   </t>
   </si>
   <si>
     <t>chr2_74534771</t>
   </si>
   <si>
-    <t>SLC4A5:KRT18P26:RP11-287D1.3</t>
+    <t>USH2A synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_215901537   </t>
   </si>
   <si>
     <t>chr2_98373778</t>
   </si>
   <si>
-    <t>TMEM131</t>
+    <t>TTC7A non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:TTC7A synonymous_variant:C2orf61 intron_variant&amp;non_coding_transcript_variant:TTC7A 3_prime_UTR_variant&amp;NMD_transcript_variant:RP11-761B3.1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_47300924   </t>
   </si>
   <si>
     <t>chr2_106710668</t>
   </si>
   <si>
-    <t>UXS1</t>
+    <t>SMEK2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_55813743   </t>
   </si>
   <si>
     <t>chr2_170127380</t>
   </si>
   <si>
-    <t>LRP2</t>
+    <t>FSIP2 missense_variant:FSIP2 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_186671441   </t>
   </si>
   <si>
     <t>chr2_176996022</t>
   </si>
   <si>
-    <t>HOXD8:HOXD-AS2</t>
+    <t>NDUFA10 intron_variant:NDUFA10 intron_variant&amp;NMD_transcript_variant:NDUFA10 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_240957112   </t>
   </si>
   <si>
     <t>chr2_186689258</t>
   </si>
   <si>
-    <t>FSIP2</t>
+    <t xml:space="preserve">chr3_133335534   </t>
   </si>
   <si>
     <t>chr3_45754598</t>
   </si>
   <si>
-    <t>SACM1L</t>
+    <t>RGL2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RGL2 missense_variant:PFDN6 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_33259931   </t>
   </si>
   <si>
     <t>chr3_56705786</t>
   </si>
   <si>
-    <t>FAM208A</t>
+    <t>LGSN intron_variant:LGSN 3_prime_UTR_variant:LGSN synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_63990376   </t>
   </si>
   <si>
     <t>chr3_90276701</t>
   </si>
   <si>
-    <t>PROSP</t>
+    <t>CCDC129 intron_variant:CCDC129 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_31569459   </t>
   </si>
   <si>
     <t>chr3_145841117</t>
   </si>
   <si>
-    <t>PLOD2</t>
+    <t>SLC2A8 intron_variant&amp;non_coding_transcript_variant:SLC2A8 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_130168295   </t>
   </si>
   <si>
     <t>chr3_150514564</t>
   </si>
   <si>
+    <t>MMP26 intron_variant:OR52R1 missense_variant:MMP26 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_4825181   </t>
+  </si>
+  <si>
     <t>chr3_195955099</t>
   </si>
   <si>
-    <t>SLC51A:PCYT1A</t>
+    <t>DNAH10 intron_variant&amp;non_coding_transcript_variant:DNAH10 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_124297661   </t>
   </si>
   <si>
     <t>chr4_4190507</t>
   </si>
   <si>
+    <t xml:space="preserve">chr14_22038169   </t>
+  </si>
+  <si>
     <t>chr4_4190511</t>
   </si>
   <si>
+    <t>FOXA1 synonymous_variant:FOXA1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_38061155   </t>
+  </si>
+  <si>
+    <t>FOXA1:FOXA1</t>
+  </si>
+  <si>
+    <t>synonymous_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
     <t>chr4_25158357</t>
   </si>
   <si>
-    <t>SEPSECS</t>
+    <t>CES2 missense_variant&amp;NMD_transcript_variant:CES2 intron_variant:CES2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_66969636   </t>
   </si>
   <si>
     <t>chr4_57677780</t>
   </si>
   <si>
-    <t>SPINK2</t>
+    <t>PRMT7 intron_variant:PRMT7 intron_variant&amp;non_coding_transcript_variant:PRMT7 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_68371178   </t>
   </si>
   <si>
     <t>chr4_88537178</t>
   </si>
   <si>
-    <t>DSPP:RP11-742B18.1</t>
+    <t>HNF1B stop_gained&amp;splice_region_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_36099431   </t>
   </si>
   <si>
     <t>chr4_88537276</t>
   </si>
   <si>
+    <t>AC011513.4 intron_variant&amp;non_coding_transcript_variant:CEACAM6 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_42265305   </t>
+  </si>
+  <si>
     <t>chr4_89421228</t>
   </si>
   <si>
-    <t>HERC5</t>
+    <t xml:space="preserve">chr22_22550451   </t>
   </si>
   <si>
     <t>chr4_190878395</t>
   </si>
   <si>
-    <t>FRG1</t>
+    <t>HUWE1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_53674168   </t>
   </si>
   <si>
     <t>chr5_13883151</t>
   </si>
   <si>
-    <t>DNAH5:CTB-51A17.1</t>
+    <t>SEPSECS intron_variant&amp;NMD_transcript_variant:SEPSECS intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_25158357   </t>
   </si>
   <si>
     <t>chr5_24749562</t>
   </si>
   <si>
-    <t>RP11-12P19.2</t>
+    <t>UBR4 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_19536728   </t>
   </si>
   <si>
     <t>chr5_133451172</t>
   </si>
   <si>
-    <t>TCF7</t>
+    <t>CD96 intron_variant:CD96 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_111343141   </t>
   </si>
   <si>
     <t>chr5_139494773</t>
   </si>
   <si>
+    <t>SHOX2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_157818250   </t>
+  </si>
+  <si>
     <t>chr5_149624901</t>
   </si>
   <si>
-    <t>CAMK2A</t>
+    <t>SNCA intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_90749432   </t>
   </si>
   <si>
     <t>chr6_70866358</t>
   </si>
   <si>
-    <t>COL19A1</t>
+    <t xml:space="preserve">chr11_4661424   </t>
   </si>
   <si>
     <t>chr6_129479220</t>
   </si>
   <si>
-    <t>LAMA2:BMPR1APS1</t>
+    <t xml:space="preserve">chr14_101525964   </t>
   </si>
   <si>
     <t>chr6_143375226</t>
   </si>
   <si>
+    <t>CAMTA2 missense_variant:CAMTA2 3_prime_UTR_variant&amp;NMD_transcript_variant:CAMTA2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:CAMTA2 synonymous_variant:RP5-1050D4.3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_4872073   </t>
+  </si>
+  <si>
     <t>chr6_159653629</t>
   </si>
   <si>
-    <t>FNDC1</t>
+    <t>ACAP1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:ACAP1 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_7247187   </t>
   </si>
   <si>
     <t>chr7_31569459</t>
   </si>
   <si>
-    <t>CCDC129</t>
+    <t>VAV1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_6837147   </t>
+  </si>
+  <si>
+    <t>VAV1</t>
+  </si>
+  <si>
+    <t>intron_variant</t>
   </si>
   <si>
     <t>chr7_101126480</t>
   </si>
   <si>
-    <t>COL26A1</t>
+    <t xml:space="preserve">chr19_49573636   </t>
   </si>
   <si>
     <t>chr7_107738822</t>
   </si>
   <si>
-    <t>LAMB4</t>
+    <t>SPAG4 intron_variant&amp;non_coding_transcript_variant:SPAG4 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_34205785   </t>
   </si>
   <si>
     <t>chr7_122826977</t>
   </si>
   <si>
-    <t>SLC13A1</t>
+    <t>IGLL5 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22_23230308   </t>
   </si>
   <si>
     <t>chr7_138957240</t>
   </si>
   <si>
-    <t>UBN2</t>
+    <t>EIF4G1 synonymous_variant:EIF4G1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:EIF4G1 synonymous_variant&amp;NMD_transcript_variant:EIF4G1 3_prime_UTR_variant&amp;NMD_transcript_variant:EIF2B5 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_184046482   </t>
   </si>
   <si>
     <t>chr7_142124611</t>
   </si>
   <si>
+    <t>CTB-47B8.5 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:MARK2P11 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_157414117   </t>
+  </si>
+  <si>
     <t>chr7_149148379</t>
   </si>
   <si>
+    <t>PGR intron_variant&amp;NMD_transcript_variant:PGR intron_variant:PGR intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_100910107   </t>
+  </si>
+  <si>
     <t>chr8_24253182</t>
   </si>
   <si>
-    <t>ADAMDEC1:RP11-624C23.1</t>
+    <t>LAMB4 intron_variant:LAMB4 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_107738822   </t>
   </si>
   <si>
     <t>chr8_42022831</t>
   </si>
   <si>
-    <t>AP3M2</t>
+    <t>SHISA9 intron_variant:SHISA9 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_13307325   </t>
   </si>
   <si>
     <t>chr8_67066238</t>
   </si>
   <si>
-    <t>TRIM55</t>
+    <t>AC074391.1 intron_variant&amp;non_coding_transcript_variant:KRT18P33 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_65893962   </t>
   </si>
   <si>
     <t>chr8_68092258</t>
   </si>
   <si>
-    <t>CSPP1:ARFGEF1</t>
+    <t>COL19A1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_70866358   </t>
   </si>
   <si>
     <t>chr9_14824709</t>
   </si>
   <si>
-    <t>FREM1</t>
+    <t>PKHD1 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_51613198   </t>
   </si>
   <si>
     <t>chr9_35906347</t>
   </si>
   <si>
+    <t>OAS3 intron_variant:RP1-71H24.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_113386631   </t>
+  </si>
+  <si>
     <t>chr9_102730697</t>
   </si>
   <si>
-    <t>STX17</t>
+    <t xml:space="preserve">chr11_28042838   </t>
   </si>
   <si>
     <t>chr9_131904617</t>
   </si>
   <si>
-    <t>PPP2R4</t>
+    <t>TPTE2P1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_25541700   </t>
   </si>
   <si>
     <t>chr10_6797423</t>
   </si>
   <si>
+    <t xml:space="preserve">chr17_60324472   </t>
+  </si>
+  <si>
     <t>chr10_19024741</t>
   </si>
   <si>
+    <t>SIGLEC6 intron_variant&amp;non_coding_transcript_variant:SIGLEC6 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_52033439   </t>
+  </si>
+  <si>
     <t>chr10_100035857</t>
   </si>
   <si>
+    <t>LAMA2 intron_variant:BMPR1APS1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_129479220   </t>
+  </si>
+  <si>
     <t>chr10_105133368</t>
   </si>
   <si>
-    <t>TAF5</t>
+    <t xml:space="preserve">chr1_161208254   </t>
   </si>
   <si>
     <t>chr10_134218045</t>
   </si>
   <si>
-    <t>PWWP2B</t>
+    <t>ZZZ3 intron_variant:ZZZ3 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_78104938   </t>
   </si>
   <si>
     <t>chr11_3552847</t>
   </si>
   <si>
-    <t>RP13-726E6.2</t>
+    <t xml:space="preserve">chr3_150514564   </t>
   </si>
   <si>
     <t>chr11_3552882</t>
   </si>
   <si>
+    <t>MYO16 intron_variant:MYO16 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_109661101   </t>
+  </si>
+  <si>
     <t>chr11_6662745</t>
   </si>
   <si>
+    <t>CES1P1 intron_variant&amp;non_coding_transcript_variant:CES1P1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_55798804   </t>
+  </si>
+  <si>
     <t>chr11_17111197</t>
   </si>
   <si>
-    <t>PIK3C2A</t>
+    <t>RP11-344N17.11 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_48140519   </t>
   </si>
   <si>
     <t>chr11_67433754</t>
   </si>
   <si>
-    <t>ALDH3B2</t>
+    <t>GRM6 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_178418699   </t>
   </si>
   <si>
     <t>chr11_74645032</t>
   </si>
   <si>
-    <t>XRRA1</t>
+    <t>GPR137C missense_variant&amp;splice_region_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_53065031   </t>
   </si>
   <si>
     <t>chr11_76405740</t>
   </si>
   <si>
-    <t>GUCY2EP:RP11-672A2.3</t>
+    <t>C12orf79 intron_variant:C12orf79 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_92380651   </t>
   </si>
   <si>
     <t>chr11_112072992</t>
   </si>
   <si>
-    <t>BCO2</t>
+    <t xml:space="preserve">chr6_170599989   </t>
   </si>
   <si>
     <t>chr11_125482678</t>
   </si>
   <si>
-    <t>STT3A</t>
+    <t>VPS13A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_79816194   </t>
   </si>
   <si>
     <t>chr12_92380651</t>
   </si>
   <si>
-    <t>C12orf79</t>
+    <t xml:space="preserve">chr15_20173336   </t>
   </si>
   <si>
     <t>chr12_106852803</t>
   </si>
   <si>
-    <t>POLR3B</t>
+    <t>TBX18 intron_variant:TBX18 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_85466732   </t>
   </si>
   <si>
     <t>chr12_111537985</t>
   </si>
   <si>
-    <t>CUX2</t>
+    <t xml:space="preserve">chr16_31236050   </t>
   </si>
   <si>
     <t>chr12_112685781</t>
   </si>
   <si>
-    <t>HECTD4</t>
+    <t>LAIR1 intron_variant&amp;NMD_transcript_variant:LAIR1 intron_variant:LAIR1 intron_variant&amp;non_coding_transcript_variant:LAIR1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_54867886   </t>
   </si>
   <si>
     <t>chr13_70293343</t>
   </si>
   <si>
-    <t>KLHL1</t>
+    <t>STARD9 intron_variant:STARD9 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_42918570   </t>
   </si>
   <si>
     <t>chr13_97986402</t>
   </si>
   <si>
-    <t>MBNL2</t>
+    <t>RP11-420N3.2 intron_variant&amp;non_coding_transcript_variant:RP11-382N13.5 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_5339227   </t>
   </si>
   <si>
     <t>chr13_108518686</t>
   </si>
   <si>
+    <t>TRIM55 intron_variant:TRIM55 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_67066238   </t>
+  </si>
+  <si>
     <t>chr13_109661101</t>
   </si>
   <si>
-    <t>MYO16</t>
+    <t>HERC5 intron_variant&amp;non_coding_transcript_variant:HERC5 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_89421228   </t>
   </si>
   <si>
     <t>chr13_110436296</t>
   </si>
   <si>
+    <t xml:space="preserve">chr14_106363919   </t>
+  </si>
+  <si>
     <t>chr14_31112378</t>
   </si>
   <si>
-    <t>SCFD1</t>
+    <t>EDEM3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_184688237   </t>
   </si>
   <si>
     <t>chr14_64540964</t>
   </si>
   <si>
-    <t>SYNE2</t>
+    <t xml:space="preserve">chr14_106363921   </t>
   </si>
   <si>
     <t>chr14_74205925</t>
   </si>
   <si>
-    <t>ELMSAN1</t>
+    <t xml:space="preserve">chr19_43780479   </t>
   </si>
   <si>
     <t>chr14_106363823</t>
   </si>
   <si>
+    <t xml:space="preserve">chr7_97515231   </t>
+  </si>
+  <si>
     <t>chr14_106363921</t>
   </si>
   <si>
+    <t>PIK3C2A 3_prime_UTR_variant:PIK3C2A intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_17111197   </t>
+  </si>
+  <si>
     <t>chr15_21893259</t>
   </si>
   <si>
+    <t>IL4R 3_prime_UTR_variant:IL4R intron_variant&amp;non_coding_transcript_variant:IL4R intron_variant&amp;NMD_transcript_variant:IL4R intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_27356600   </t>
+  </si>
+  <si>
     <t>chr15_22473267</t>
   </si>
   <si>
+    <t>CRISP3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_49698733   </t>
+  </si>
+  <si>
     <t>chr15_42918570</t>
   </si>
   <si>
-    <t>STARD9</t>
+    <t>EGFR missense_variant</t>
+  </si>
+  <si>
+    <t>chr7_55233034   EGFR SNV missense_variant</t>
+  </si>
+  <si>
+    <t>EGFR</t>
+  </si>
+  <si>
+    <t>missense_variant</t>
   </si>
   <si>
     <t>chr16_4918913</t>
   </si>
   <si>
-    <t>UBN1</t>
+    <t>AP5Z1 intron_variant&amp;non_coding_transcript_variant:AP5Z1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_4820621   </t>
   </si>
   <si>
     <t>chr16_13307325</t>
   </si>
   <si>
-    <t>SHISA9</t>
+    <t>ZNF595 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:ZNF595 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_53380   </t>
   </si>
   <si>
     <t>chr16_31428068</t>
   </si>
   <si>
+    <t>PAK6 splice_region_variant&amp;intron_variant:RP11-133K1.2 splice_region_variant&amp;intron_variant&amp;NMD_transcript_variant:RP11-133K1.2 splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_40565747   </t>
+  </si>
+  <si>
     <t>chr16_50368677</t>
   </si>
   <si>
-    <t>BRD7</t>
+    <t>CCDC144B intron_variant&amp;non_coding_transcript_variant:CTD-2303H24.2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_18454769   </t>
   </si>
   <si>
     <t>chr16_50734029</t>
   </si>
   <si>
-    <t>NOD2</t>
+    <t>PRIM2 intron_variant&amp;non_coding_transcript_variant:PRIM2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_57472212   </t>
   </si>
   <si>
     <t>chr16_51171493</t>
   </si>
   <si>
-    <t>SALL1</t>
+    <t xml:space="preserve">chr10_79492449   </t>
   </si>
   <si>
     <t>chr16_68355171</t>
   </si>
   <si>
-    <t>PRMT7</t>
+    <t xml:space="preserve">chr13_110436296   </t>
   </si>
   <si>
     <t>chr16_68371178</t>
   </si>
   <si>
+    <t>ADAMDEC1 intron_variant:RP11-624C23.1 intron_variant&amp;non_coding_transcript_variant:ADAMDEC1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_24253182   </t>
+  </si>
+  <si>
     <t>chr17_263701</t>
   </si>
   <si>
-    <t>AC108004.3:C17orf97</t>
+    <t>GRIPAP1 intron_variant:GRIPAP1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_48841622   </t>
   </si>
   <si>
     <t>chr17_26101214</t>
   </si>
   <si>
+    <t>ARHGEF17 5_prime_UTR_variant:RP11-800A3.7 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_73019648   </t>
+  </si>
+  <si>
     <t>chr17_41113131</t>
   </si>
   <si>
-    <t>AARSD1:PTGES3L-AARSD1</t>
+    <t>SEC14L1 intron_variant:SEC14L1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_75187625   </t>
   </si>
   <si>
     <t>chr17_75187625</t>
   </si>
   <si>
-    <t>SEC14L1</t>
+    <t>STT3A intron_variant&amp;non_coding_transcript_variant:STT3A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_125482678   </t>
   </si>
   <si>
     <t>chr17_75441607</t>
   </si>
   <si>
-    <t>SEPT9</t>
+    <t>GALNT8 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_4877525   </t>
   </si>
   <si>
     <t>chr17_80000798</t>
   </si>
   <si>
+    <t xml:space="preserve">chr15_22473267   </t>
+  </si>
+  <si>
     <t>chr18_12337642</t>
   </si>
   <si>
-    <t>AFG3L2:TUBB6</t>
+    <t>CFTR intron_variant:CFTR intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_117227765   </t>
   </si>
   <si>
     <t>chr18_37092025</t>
   </si>
   <si>
+    <t>PWWP2B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_134218045   </t>
+  </si>
+  <si>
     <t>chr19_7568966</t>
   </si>
   <si>
-    <t>C19orf45</t>
+    <t>CA10 intron_variant:CA10 intron_variant&amp;non_coding_transcript_variant:CA10 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_50008512   </t>
   </si>
   <si>
     <t>chr19_42218820</t>
   </si>
   <si>
-    <t>CEA:CEACAM5</t>
+    <t>RAD54L intron_variant&amp;non_coding_transcript_variant:LRRC41 splice_acceptor_variant&amp;non_coding_transcript_variant:RAD54L intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_46733350   </t>
   </si>
   <si>
     <t>chr19_49926530</t>
   </si>
   <si>
+    <t xml:space="preserve">chr16_75534342   </t>
+  </si>
+  <si>
     <t>chr20_1592431</t>
   </si>
   <si>
-    <t>SIRPB1:RP4-576H24.4</t>
+    <t>SLC4A5 intron_variant:KRT18P26 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:SLC4A5 intron_variant&amp;non_coding_transcript_variant:RP11-287D1.3 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_74534771   </t>
   </si>
   <si>
     <t>chr20_17350043</t>
   </si>
   <si>
-    <t>PCSK2</t>
+    <t>SCN11A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_38949272   </t>
   </si>
   <si>
     <t>chr20_22714347</t>
   </si>
   <si>
+    <t xml:space="preserve">chr3_104222063   </t>
+  </si>
+  <si>
     <t>chr20_60904421</t>
   </si>
   <si>
+    <t>ZCWPW1 intron_variant:ZCWPW1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_100017953   </t>
+  </si>
+  <si>
     <t>chr21_38463868</t>
   </si>
   <si>
-    <t>TTC3</t>
+    <t>CNTN5 intron_variant:CNTN5 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_100170227   </t>
   </si>
   <si>
     <t>chr22_21419655</t>
   </si>
   <si>
+    <t xml:space="preserve">chr15_85360507   </t>
+  </si>
+  <si>
     <t>chr22_23029871</t>
   </si>
   <si>
+    <t xml:space="preserve">chr16_55770190   </t>
+  </si>
+  <si>
     <t>chr22_42415224</t>
   </si>
   <si>
-    <t>WBP2NL</t>
+    <t>GPANK1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_31630565   </t>
   </si>
   <si>
     <t>chrX_9050441</t>
   </si>
   <si>
-    <t>FAM9B</t>
+    <t xml:space="preserve">chr10_19024741   </t>
   </si>
   <si>
     <t>chrX_48140519</t>
   </si>
   <si>
-    <t>RP11-344N17.11</t>
+    <t>CENPI missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_100403014   </t>
   </si>
   <si>
     <t>chrX_53264130</t>
   </si>
   <si>
-    <t>IQSEC2</t>
+    <t>UXS1 intron_variant&amp;non_coding_transcript_variant:UXS1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_106710668   </t>
   </si>
   <si>
     <t>chrX_73802847</t>
   </si>
   <si>
+    <t>DNAH5 frameshift_variant:CTB-51A17.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_13883151   </t>
+  </si>
+  <si>
     <t>chrX_73803016</t>
   </si>
   <si>
-    <t>PABPC1P3</t>
+    <t>UBN2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_138957240   </t>
   </si>
   <si>
     <t>chrX_73803042</t>
   </si>
   <si>
+    <t xml:space="preserve">chr11_1651677   </t>
+  </si>
+  <si>
     <t>chrX_105139356</t>
   </si>
   <si>
-    <t>NRK</t>
+    <t xml:space="preserve">chr14_106363823   </t>
   </si>
   <si>
     <t>chrX_106367753</t>
   </si>
   <si>
-    <t>NUP62CL</t>
+    <t xml:space="preserve">chr14_106363828   </t>
   </si>
   <si>
     <t>chrX_107939643</t>
   </si>
   <si>
-    <t>COL4A5</t>
+    <t>UBN1 intron_variant:UBN1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_4918913   </t>
   </si>
   <si>
     <t>chrX_149566594</t>
   </si>
   <si>
-    <t>MAMLD1</t>
+    <t>CES1 intron_variant&amp;non_coding_transcript_variant:CES1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_55863018   </t>
   </si>
   <si>
     <t>chrX_152870437</t>
   </si>
   <si>
+    <t>AC108004.3 intron_variant&amp;non_coding_transcript_variant:C17orf97 intron_variant:C17orf97 frameshift_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_263701   </t>
+  </si>
+  <si>
     <t>chrX_152870485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_43780474   </t>
   </si>
 </sst>
 </file>
@@ -1017,13 +1428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:O125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1060,10 +1471,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1096,12 +1513,15 @@
         <v>0.178571428571429</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1134,12 +1554,15 @@
         <v>0.178571428571429</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1172,12 +1595,15 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1210,12 +1636,15 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1248,12 +1677,15 @@
         <v>0.0612244897959184</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1286,12 +1718,15 @@
         <v>0.0526315789473684</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1324,12 +1759,15 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1362,12 +1800,15 @@
         <v>0.0263157894736842</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1400,12 +1841,15 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1438,12 +1882,15 @@
         <v>0.0120481927710843</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1476,12 +1923,15 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1514,12 +1964,15 @@
         <v>0.263157894736842</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1552,12 +2005,15 @@
         <v>0.05</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1590,12 +2046,15 @@
         <v>0.0571428571428571</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="M15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1628,12 +2087,15 @@
         <v>0.0857142857142857</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>55</v>
+      </c>
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1666,12 +2128,15 @@
         <v>0.0535714285714286</v>
       </c>
       <c r="L17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1704,12 +2169,15 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>60</v>
+      </c>
+      <c r="M18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1742,12 +2210,15 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>63</v>
+      </c>
+      <c r="M19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1780,12 +2251,15 @@
         <v>0.153846153846154</v>
       </c>
       <c r="L20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>66</v>
+      </c>
+      <c r="M20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1818,12 +2292,15 @@
         <v>0.0104166666666667</v>
       </c>
       <c r="L21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>69</v>
+      </c>
+      <c r="M21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1856,12 +2333,15 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>72</v>
+      </c>
+      <c r="M22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1894,12 +2374,15 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>75</v>
+      </c>
+      <c r="M23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1932,12 +2415,15 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1970,12 +2456,21 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>80</v>
+      </c>
+      <c r="M25" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" t="s">
+        <v>82</v>
+      </c>
+      <c r="O25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2008,12 +2503,15 @@
         <v>0.0454545454545455</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>85</v>
+      </c>
+      <c r="M26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2046,12 +2544,15 @@
         <v>0.102040816326531</v>
       </c>
       <c r="L27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="M27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2084,12 +2585,15 @@
         <v>0.0689655172413793</v>
       </c>
       <c r="L28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>91</v>
+      </c>
+      <c r="M28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2122,12 +2626,15 @@
         <v>0.0222222222222222</v>
       </c>
       <c r="L29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>94</v>
+      </c>
+      <c r="M29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2160,12 +2667,15 @@
         <v>0.12</v>
       </c>
       <c r="L30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2198,12 +2708,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="L31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="M31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2236,12 +2749,15 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>102</v>
+      </c>
+      <c r="M32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2274,12 +2790,15 @@
         <v>0.0752688172043011</v>
       </c>
       <c r="L33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>105</v>
+      </c>
+      <c r="M33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2312,12 +2831,15 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>108</v>
+      </c>
+      <c r="M34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2350,12 +2872,15 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>111</v>
+      </c>
+      <c r="M35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2388,12 +2913,15 @@
         <v>0.25</v>
       </c>
       <c r="L36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>114</v>
+      </c>
+      <c r="M36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2426,12 +2954,15 @@
         <v>0.12</v>
       </c>
       <c r="L37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2464,12 +2995,15 @@
         <v>0.0256410256410256</v>
       </c>
       <c r="L38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2502,12 +3036,15 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>121</v>
+      </c>
+      <c r="M39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2540,12 +3077,15 @@
         <v>0.396551724137931</v>
       </c>
       <c r="L40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>124</v>
+      </c>
+      <c r="M40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2578,12 +3118,21 @@
         <v>0.147982062780269</v>
       </c>
       <c r="L41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>127</v>
+      </c>
+      <c r="M41" t="s">
+        <v>128</v>
+      </c>
+      <c r="N41" t="s">
+        <v>129</v>
+      </c>
+      <c r="O41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2616,12 +3165,15 @@
         <v>0.177777777777778</v>
       </c>
       <c r="L42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2654,12 +3206,15 @@
         <v>0.210526315789474</v>
       </c>
       <c r="L43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>134</v>
+      </c>
+      <c r="M43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2692,12 +3247,15 @@
         <v>0.122448979591837</v>
       </c>
       <c r="L44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>137</v>
+      </c>
+      <c r="M44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2730,12 +3288,15 @@
         <v>0.00714285714285714</v>
       </c>
       <c r="L45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>140</v>
+      </c>
+      <c r="M45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2768,12 +3329,15 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>143</v>
+      </c>
+      <c r="M46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2806,12 +3370,15 @@
         <v>0.0138888888888889</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>146</v>
+      </c>
+      <c r="M47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2844,12 +3411,15 @@
         <v>0.0277777777777778</v>
       </c>
       <c r="L48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2882,12 +3452,15 @@
         <v>0.0113636363636364</v>
       </c>
       <c r="L49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>152</v>
+      </c>
+      <c r="M49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2920,12 +3493,15 @@
         <v>0.0483870967741935</v>
       </c>
       <c r="L50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>155</v>
+      </c>
+      <c r="M50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2958,12 +3534,15 @@
         <v>0.0476190476190476</v>
       </c>
       <c r="L51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>158</v>
+      </c>
+      <c r="M51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2996,12 +3575,15 @@
         <v>0.0869565217391304</v>
       </c>
       <c r="L52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>161</v>
+      </c>
+      <c r="M52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3034,12 +3616,15 @@
         <v>0.0357142857142857</v>
       </c>
       <c r="L53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>164</v>
+      </c>
+      <c r="M53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3072,12 +3657,15 @@
         <v>0.0638297872340425</v>
       </c>
       <c r="L54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3110,12 +3698,15 @@
         <v>0.115384615384615</v>
       </c>
       <c r="L55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>169</v>
+      </c>
+      <c r="M55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3148,12 +3739,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3186,12 +3780,15 @@
         <v>0.0857142857142857</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>174</v>
+      </c>
+      <c r="M57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3224,12 +3821,15 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>177</v>
+      </c>
+      <c r="M58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3262,12 +3862,15 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="L59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3300,12 +3903,15 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>182</v>
+      </c>
+      <c r="M60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3338,12 +3944,15 @@
         <v>0.136363636363636</v>
       </c>
       <c r="L61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3376,12 +3985,15 @@
         <v>0.103448275862069</v>
       </c>
       <c r="L62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>187</v>
+      </c>
+      <c r="M62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3414,12 +4026,15 @@
         <v>0.04</v>
       </c>
       <c r="L63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>190</v>
+      </c>
+      <c r="M63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3452,12 +4067,15 @@
         <v>0.0392156862745098</v>
       </c>
       <c r="L64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>193</v>
+      </c>
+      <c r="M64" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3490,12 +4108,15 @@
         <v>0.338983050847458</v>
       </c>
       <c r="L65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>196</v>
+      </c>
+      <c r="M65" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3528,12 +4149,15 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>199</v>
+      </c>
+      <c r="M66" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3566,12 +4190,15 @@
         <v>0.0512820512820513</v>
       </c>
       <c r="L67" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>202</v>
+      </c>
+      <c r="M67" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3604,12 +4231,15 @@
         <v>0.0652173913043478</v>
       </c>
       <c r="L68" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M68" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3642,12 +4272,15 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="L69" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>207</v>
+      </c>
+      <c r="M69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3680,12 +4313,15 @@
         <v>0.0333333333333333</v>
       </c>
       <c r="L70" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M70" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3718,12 +4354,15 @@
         <v>0.0645161290322581</v>
       </c>
       <c r="L71" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>212</v>
+      </c>
+      <c r="M71" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3756,12 +4395,15 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M72" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3794,12 +4436,15 @@
         <v>0.0285714285714286</v>
       </c>
       <c r="L73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>217</v>
+      </c>
+      <c r="M73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3832,12 +4477,15 @@
         <v>0.153846153846154</v>
       </c>
       <c r="L74" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>220</v>
+      </c>
+      <c r="M74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3870,12 +4518,15 @@
         <v>0.181818181818182</v>
       </c>
       <c r="L75" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>223</v>
+      </c>
+      <c r="M75" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3908,12 +4559,15 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>226</v>
+      </c>
+      <c r="M76" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3946,12 +4600,15 @@
         <v>0.115384615384615</v>
       </c>
       <c r="L77" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>229</v>
+      </c>
+      <c r="M77" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3984,12 +4641,15 @@
         <v>0.0232558139534884</v>
       </c>
       <c r="L78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M78" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4022,12 +4682,15 @@
         <v>0.104166666666667</v>
       </c>
       <c r="L79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>234</v>
+      </c>
+      <c r="M79" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -4060,12 +4723,15 @@
         <v>0.010752688172043</v>
       </c>
       <c r="L80" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4098,12 +4764,15 @@
         <v>0.0508474576271186</v>
       </c>
       <c r="L81" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4136,12 +4805,15 @@
         <v>0.0151515151515152</v>
       </c>
       <c r="L82" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M82" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4174,12 +4846,15 @@
         <v>0.0440528634361234</v>
       </c>
       <c r="L83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>243</v>
+      </c>
+      <c r="M83" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4212,12 +4887,15 @@
         <v>0.115384615384615</v>
       </c>
       <c r="L84" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="M84" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4250,12 +4928,15 @@
         <v>0.012987012987013</v>
       </c>
       <c r="L85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>249</v>
+      </c>
+      <c r="M85" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4288,12 +4969,21 @@
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>252</v>
+      </c>
+      <c r="M86" t="s">
+        <v>253</v>
+      </c>
+      <c r="N86" t="s">
+        <v>254</v>
+      </c>
+      <c r="O86" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4326,12 +5016,15 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>257</v>
+      </c>
+      <c r="M87" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4364,12 +5057,15 @@
         <v>0.0789473684210526</v>
       </c>
       <c r="L88" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>260</v>
+      </c>
+      <c r="M88" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>262</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4402,12 +5098,15 @@
         <v>0.0625</v>
       </c>
       <c r="L89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>263</v>
+      </c>
+      <c r="M89" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4440,12 +5139,15 @@
         <v>0.0188679245283019</v>
       </c>
       <c r="L90" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>266</v>
+      </c>
+      <c r="M90" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4478,12 +5180,15 @@
         <v>0.277777777777778</v>
       </c>
       <c r="L91" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>269</v>
+      </c>
+      <c r="M91" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4516,12 +5221,15 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="L92" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M92" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4554,12 +5262,15 @@
         <v>0.0740740740740741</v>
       </c>
       <c r="L93" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M93" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4592,12 +5303,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="L94" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>276</v>
+      </c>
+      <c r="M94" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4630,12 +5344,15 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>279</v>
+      </c>
+      <c r="M95" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4668,12 +5385,15 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>282</v>
+      </c>
+      <c r="M96" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4706,12 +5426,15 @@
         <v>0.405405405405405</v>
       </c>
       <c r="L97" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>285</v>
+      </c>
+      <c r="M97" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>287</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4744,12 +5467,15 @@
         <v>0.0357142857142857</v>
       </c>
       <c r="L98" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>288</v>
+      </c>
+      <c r="M98" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4782,12 +5508,15 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="L99" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>291</v>
+      </c>
+      <c r="M99" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4820,12 +5549,15 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="L100" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M100" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4858,12 +5590,15 @@
         <v>0.0454545454545455</v>
       </c>
       <c r="L101" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+        <v>296</v>
+      </c>
+      <c r="M101" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4896,12 +5631,15 @@
         <v>0.257142857142857</v>
       </c>
       <c r="L102" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>299</v>
+      </c>
+      <c r="M102" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4934,12 +5672,15 @@
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>302</v>
+      </c>
+      <c r="M103" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4972,12 +5713,15 @@
         <v>0.203703703703704</v>
       </c>
       <c r="L104" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>305</v>
+      </c>
+      <c r="M104" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5010,12 +5754,15 @@
         <v>0.0392156862745098</v>
       </c>
       <c r="L105" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M105" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -5048,12 +5795,15 @@
         <v>0.0697674418604651</v>
       </c>
       <c r="L106" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>310</v>
+      </c>
+      <c r="M106" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5086,12 +5836,15 @@
         <v>0.0353982300884956</v>
       </c>
       <c r="L107" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>313</v>
+      </c>
+      <c r="M107" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5124,12 +5877,15 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M108" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5162,12 +5918,15 @@
         <v>0.315789473684211</v>
       </c>
       <c r="L109" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>318</v>
+      </c>
+      <c r="M109" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5200,12 +5959,15 @@
         <v>0.027027027027027</v>
       </c>
       <c r="L110" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+        <v>321</v>
+      </c>
+      <c r="M110" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>200</v>
+        <v>323</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5238,12 +6000,15 @@
         <v>0.130434782608696</v>
       </c>
       <c r="L111" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M111" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>201</v>
+        <v>325</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5276,12 +6041,15 @@
         <v>0.0638297872340425</v>
       </c>
       <c r="L112" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M112" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>327</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5314,12 +6082,15 @@
         <v>0.222222222222222</v>
       </c>
       <c r="L113" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+        <v>328</v>
+      </c>
+      <c r="M113" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>204</v>
+        <v>330</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5352,12 +6123,15 @@
         <v>0.0333333333333333</v>
       </c>
       <c r="L114" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M114" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5390,12 +6164,15 @@
         <v>0.0882352941176471</v>
       </c>
       <c r="L115" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>333</v>
+      </c>
+      <c r="M115" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>208</v>
+        <v>335</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5428,12 +6205,15 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>336</v>
+      </c>
+      <c r="M116" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>210</v>
+        <v>338</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5466,12 +6246,15 @@
         <v>0.0363636363636364</v>
       </c>
       <c r="L117" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>339</v>
+      </c>
+      <c r="M117" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>341</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5504,12 +6287,15 @@
         <v>0.0595238095238095</v>
       </c>
       <c r="L118" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+        <v>342</v>
+      </c>
+      <c r="M118" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5542,12 +6328,15 @@
         <v>0.0384615384615385</v>
       </c>
       <c r="L119" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M119" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>214</v>
+        <v>346</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5580,12 +6369,15 @@
         <v>0.0053475935828877</v>
       </c>
       <c r="L120" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M120" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>348</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5618,12 +6410,15 @@
         <v>0.0555555555555556</v>
       </c>
       <c r="L121" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="M121" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5656,12 +6451,15 @@
         <v>0.0689655172413793</v>
       </c>
       <c r="L122" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+        <v>351</v>
+      </c>
+      <c r="M122" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5694,12 +6492,15 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="L123" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+        <v>354</v>
+      </c>
+      <c r="M123" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5732,12 +6533,15 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
+        <v>357</v>
+      </c>
+      <c r="M124" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>223</v>
+        <v>359</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5770,7 +6574,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="M125" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
